--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,51 +43,66 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
@@ -97,67 +112,64 @@
     <t>good</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>help</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -515,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C3">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -626,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -634,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6764705882352942</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,37 +696,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5555555555555556</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3862433862433862</v>
+        <v>0.4021164021164021</v>
       </c>
       <c r="C7">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8642297650130548</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3725490196078431</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>340</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3527131782945737</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C9">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>334</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2214765100671141</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -952,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,21 +988,45 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.2080536912751678</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>118</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1002,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="L12">
         <v>26</v>
       </c>
-      <c r="K12">
-        <v>0.8</v>
-      </c>
-      <c r="L12">
-        <v>128</v>
-      </c>
       <c r="M12">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1028,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1054,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L14">
         <v>28</v>
       </c>
-      <c r="K14">
-        <v>0.7926829268292683</v>
-      </c>
-      <c r="L14">
-        <v>65</v>
-      </c>
       <c r="M14">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1080,21 +1116,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7890625</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1106,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7872340425531915</v>
+        <v>0.7625</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1132,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7676056338028169</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1158,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1184,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1210,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L20">
         <v>34</v>
       </c>
-      <c r="K20">
-        <v>0.6976744186046512</v>
-      </c>
-      <c r="L20">
-        <v>30</v>
-      </c>
       <c r="M20">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1236,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6825396825396826</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1262,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6088235294117647</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L22">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1288,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>133</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1319,16 +1355,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1340,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5732217573221757</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L25">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1366,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5692307692307692</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1392,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5638297872340425</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1418,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5627118644067797</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1444,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.55</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1470,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.5285714285714286</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1496,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4943820224719101</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1522,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.3076923076923077</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1548,21 +1584,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.2602739726027397</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1574,7 +1610,85 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>54</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="L34">
+        <v>38</v>
+      </c>
+      <c r="M34">
+        <v>38</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <v>0.3150684931506849</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="L36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
